--- a/SP1/SP1.xlsx
+++ b/SP1/SP1.xlsx
@@ -14,17 +14,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$4:$G$4</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -392,7 +381,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3</c15:sqref>
@@ -492,7 +481,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7514-4735-9C87-B9854617D5CF}"/>
                   </c:ext>
@@ -505,7 +494,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -605,7 +594,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7514-4735-9C87-B9854617D5CF}"/>
                   </c:ext>
@@ -860,7 +849,6 @@
                   <c:v>MergeSort</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -889,10 +877,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -911,16 +899,24 @@
                 <c:pt idx="5">
                   <c:v>2000000</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000000</c:v>
+                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -939,8 +935,16 @@
                 <c:pt idx="5">
                   <c:v>737</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7929</c:v>
+                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1014,13 +1018,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -1038,6 +1042,15 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1047,13 +1060,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -1071,6 +1084,15 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1133,13 +1155,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -1157,6 +1179,15 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1166,13 +1197,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$G$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$J$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>6</c:v>
                       </c:pt>
@@ -1195,7 +1226,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2EAB-4AF8-A661-CBEBBCF894CF}"/>
                   </c:ext>
@@ -1208,7 +1239,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -1249,16 +1280,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -1276,22 +1307,31 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$G$4</c15:sqref>
+                          <c15:sqref>Sheet1!$B$4:$J$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1309,12 +1349,21 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>283</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>880</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1810</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2292</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-2EAB-4AF8-A661-CBEBBCF894CF}"/>
                   </c:ext>
@@ -1569,7 +1618,6 @@
                   <c:v>PrimitiveMergeSort</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1598,10 +1646,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$B$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -1620,16 +1668,24 @@
                 <c:pt idx="5">
                   <c:v>2000000</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000000</c:v>
+                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1648,8 +1704,16 @@
                 <c:pt idx="5">
                   <c:v>283</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2292</c:v>
+                </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -1723,13 +1787,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -1747,6 +1811,15 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1756,13 +1829,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -1780,6 +1853,15 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1842,13 +1924,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -1866,6 +1948,15 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1875,13 +1966,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$G$2</c15:sqref>
+                          <c15:sqref>Sheet1!$B$2:$J$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>6</c:v>
                       </c:pt>
@@ -1904,7 +1995,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-D838-4515-899C-B6B8546F20B8}"/>
                   </c:ext>
@@ -1917,7 +2008,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3</c15:sqref>
@@ -1958,16 +2049,16 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$G$1</c15:sqref>
+                          <c15:sqref>Sheet1!$B$1:$J$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>1000</c:v>
                       </c:pt>
@@ -1985,22 +2076,31 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>2000000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6000000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12000000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15000000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$G$3</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$J$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="9"/>
                       <c:pt idx="0">
                         <c:v>2</c:v>
                       </c:pt>
@@ -2018,12 +2118,21 @@
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>737</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2620</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6049</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7929</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D838-4515-899C-B6B8546F20B8}"/>
                   </c:ext>
@@ -4298,10 +4407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4311,7 +4420,7 @@
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4333,8 +4442,17 @@
       <c r="G1" s="1">
         <v>2000000</v>
       </c>
+      <c r="H1" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="I1" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="J1" s="1">
+        <v>15000000</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4357,7 +4475,7 @@
         <v>22835025</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4379,8 +4497,17 @@
       <c r="G3">
         <v>737</v>
       </c>
+      <c r="H3">
+        <v>2620</v>
+      </c>
+      <c r="I3">
+        <v>6049</v>
+      </c>
+      <c r="J3">
+        <v>7929</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4402,6 +4529,15 @@
       <c r="G4">
         <v>283</v>
       </c>
+      <c r="H4">
+        <v>880</v>
+      </c>
+      <c r="I4">
+        <v>1810</v>
+      </c>
+      <c r="J4">
+        <v>2292</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
